--- a/resources/excel/SignUpWorkbook.xlsx
+++ b/resources/excel/SignUpWorkbook.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="49">
   <si>
     <t>signups_summary_list</t>
   </si>
@@ -119,6 +119,18 @@
     <t>commission</t>
   </si>
   <si>
+    <t>external_id</t>
+  </si>
+  <si>
+    <t>#ioy2fcf</t>
+  </si>
+  <si>
+    <t>utm_id</t>
+  </si>
+  <si>
+    <t>wvninnewn</t>
+  </si>
+  <si>
     <t>utm_source</t>
   </si>
   <si>
@@ -129,6 +141,24 @@
   </si>
   <si>
     <t>social</t>
+  </si>
+  <si>
+    <t>utm_campaign</t>
+  </si>
+  <si>
+    <t>fireship</t>
+  </si>
+  <si>
+    <t>utm_term</t>
+  </si>
+  <si>
+    <t>apple</t>
+  </si>
+  <si>
+    <t>utm_content</t>
+  </si>
+  <si>
+    <t>logolink</t>
   </si>
 </sst>
 </file>
@@ -222,7 +252,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -259,9 +289,6 @@
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -904,25 +931,40 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="7"/>
+      <c r="C8" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
-      <c r="K8" s="14" t="s">
+      <c r="K8" s="8" t="s">
         <v>36</v>
       </c>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="12"/>
+      <c r="Q8" s="12"/>
+      <c r="R8" s="12"/>
+      <c r="S8" s="12"/>
+      <c r="T8" s="12"/>
+      <c r="U8" s="12"/>
+      <c r="V8" s="12"/>
+      <c r="W8" s="12"/>
+      <c r="X8" s="12"/>
+      <c r="Y8" s="12"/>
+      <c r="Z8" s="12"/>
     </row>
     <row r="9">
       <c r="A9" s="8" t="s">
@@ -941,48 +983,204 @@
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
-      <c r="K9" s="8" t="s">
+      <c r="K9" s="9" t="s">
         <v>38</v>
       </c>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="12"/>
+      <c r="Q9" s="12"/>
+      <c r="R9" s="12"/>
+      <c r="S9" s="12"/>
+      <c r="T9" s="12"/>
+      <c r="U9" s="12"/>
+      <c r="V9" s="12"/>
+      <c r="W9" s="12"/>
+      <c r="X9" s="12"/>
+      <c r="Y9" s="12"/>
+      <c r="Z9" s="12"/>
     </row>
     <row r="10">
-      <c r="A10" s="12"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="13"/>
+      <c r="A10" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="7"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="12"/>
+      <c r="P10" s="12"/>
+      <c r="Q10" s="12"/>
+      <c r="R10" s="12"/>
+      <c r="S10" s="12"/>
+      <c r="T10" s="12"/>
+      <c r="U10" s="12"/>
+      <c r="V10" s="12"/>
+      <c r="W10" s="12"/>
+      <c r="X10" s="12"/>
+      <c r="Y10" s="12"/>
+      <c r="Z10" s="12"/>
     </row>
     <row r="11">
-      <c r="A11" s="12"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="13"/>
+      <c r="A11" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="12"/>
+      <c r="P11" s="12"/>
+      <c r="Q11" s="12"/>
+      <c r="R11" s="12"/>
+      <c r="S11" s="12"/>
+      <c r="T11" s="12"/>
+      <c r="U11" s="12"/>
+      <c r="V11" s="12"/>
+      <c r="W11" s="12"/>
+      <c r="X11" s="12"/>
+      <c r="Y11" s="12"/>
+      <c r="Z11" s="12"/>
     </row>
     <row r="12">
-      <c r="A12" s="12"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="13"/>
+      <c r="A12" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="12"/>
+      <c r="P12" s="12"/>
+      <c r="Q12" s="12"/>
+      <c r="R12" s="12"/>
+      <c r="S12" s="12"/>
+      <c r="T12" s="12"/>
+      <c r="U12" s="12"/>
+      <c r="V12" s="12"/>
+      <c r="W12" s="12"/>
+      <c r="X12" s="12"/>
+      <c r="Y12" s="12"/>
+      <c r="Z12" s="12"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="12"/>
+      <c r="P13" s="12"/>
+      <c r="Q13" s="12"/>
+      <c r="R13" s="12"/>
+      <c r="S13" s="12"/>
+      <c r="T13" s="12"/>
+      <c r="U13" s="12"/>
+      <c r="V13" s="12"/>
+      <c r="W13" s="12"/>
+      <c r="X13" s="12"/>
+      <c r="Y13" s="12"/>
+      <c r="Z13" s="12"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="12"/>
+      <c r="P14" s="12"/>
+      <c r="Q14" s="12"/>
+      <c r="R14" s="12"/>
+      <c r="S14" s="12"/>
+      <c r="T14" s="12"/>
+      <c r="U14" s="12"/>
+      <c r="V14" s="12"/>
+      <c r="W14" s="12"/>
+      <c r="X14" s="12"/>
+      <c r="Y14" s="12"/>
+      <c r="Z14" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="1">
